--- a/sys_COMEDY.xlsx
+++ b/sys_COMEDY.xlsx
@@ -295,25 +295,25 @@
     <t>Comedy</t>
   </si>
   <si>
-    <t>tez</t>
-  </si>
-  <si>
-    <t>tms</t>
-  </si>
-  <si>
-    <t>zer</t>
-  </si>
-  <si>
-    <t>ler</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>whi</t>
-  </si>
-  <si>
-    <t>sil</t>
+    <t>tezu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tms </t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>lerc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>whit</t>
+  </si>
+  <si>
+    <t>silv</t>
   </si>
   <si>
     <t>olm</t>

--- a/sys_COMEDY.xlsx
+++ b/sys_COMEDY.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>makazawaouka</t>

--- a/sys_COMEDY.xlsx
+++ b/sys_COMEDY.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>makazawaouka</t>
@@ -295,25 +295,25 @@
     <t>Comedy</t>
   </si>
   <si>
-    <t>tezu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tms </t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>lerc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a-1 </t>
-  </si>
-  <si>
-    <t>whit</t>
-  </si>
-  <si>
-    <t>silv</t>
+    <t>tez</t>
+  </si>
+  <si>
+    <t>tms</t>
+  </si>
+  <si>
+    <t>zer</t>
+  </si>
+  <si>
+    <t>ler</t>
+  </si>
+  <si>
+    <t>a-1</t>
+  </si>
+  <si>
+    <t>whi</t>
+  </si>
+  <si>
+    <t>sil</t>
   </si>
   <si>
     <t>olm</t>

--- a/sys_COMEDY.xlsx
+++ b/sys_COMEDY.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>makazawaouka</t>
@@ -295,25 +295,25 @@
     <t>Comedy</t>
   </si>
   <si>
-    <t>tez</t>
-  </si>
-  <si>
-    <t>tms</t>
-  </si>
-  <si>
-    <t>zer</t>
-  </si>
-  <si>
-    <t>ler</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>whi</t>
-  </si>
-  <si>
-    <t>sil</t>
+    <t>tezu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tms </t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>lerc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>whit</t>
+  </si>
+  <si>
+    <t>silv</t>
   </si>
   <si>
     <t>olm</t>
